--- a/AJMC THESIS MEGA SHEET.xlsb.xlsx
+++ b/AJMC THESIS MEGA SHEET.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\16s_diadema_ajmc2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A44AC-FC11-4C31-AF59-0F9ADB83E794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F39E1-D1A3-449F-AEE3-DD4A38786546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9954" yWindow="2658" windowWidth="17280" windowHeight="9108" activeTab="1" xr2:uid="{018B6E01-6B09-4FD3-91E7-6069B2C490ED}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{018B6E01-6B09-4FD3-91E7-6069B2C490ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="187">
   <si>
     <t>Sample ID</t>
   </si>
@@ -585,13 +585,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>00774</t>
+  </si>
+  <si>
+    <t>18.387573, -65.719617</t>
+  </si>
+  <si>
+    <t>86 F / 29 C</t>
+  </si>
+  <si>
+    <t>13 mph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +654,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,9 +756,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,12 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,9 +791,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,9 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -820,6 +828,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7745,10 +7776,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{750C1717-44DD-45F9-9A9C-65D003B45851}" name="Table1" displayName="Table1" ref="A1:R50" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A1:R50" xr:uid="{1D657054-5116-40A0-9CBB-3486E44CE27F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R50">
-    <sortCondition ref="A1:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{750C1717-44DD-45F9-9A9C-65D003B45851}" name="Table1" displayName="Table1" ref="A1:R51" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A1:R51" xr:uid="{1D657054-5116-40A0-9CBB-3486E44CE27F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{379BF9FC-5F98-4741-9581-B9239475ACE8}" name="Sample ID" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
@@ -8222,339 +8253,339 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27">
+      <c r="G22" s="21"/>
+      <c r="H22" s="22">
         <v>2</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="22">
         <v>6</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="22">
         <v>1</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22">
         <v>1</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27">
+      <c r="I23" s="21"/>
+      <c r="J23" s="22">
         <v>2</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="22">
         <v>3</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="22">
         <v>4</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27">
+      <c r="M23" s="21"/>
+      <c r="N23" s="22">
         <v>10</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="22">
         <v>1</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="22">
         <v>1</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22">
         <v>1</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27">
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22">
         <v>3</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="22">
         <v>1</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="22">
         <v>1</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="22">
         <v>1</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22">
         <v>3</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="22">
         <v>1</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22">
         <v>1</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="22">
         <v>1</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="22">
         <v>1</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27">
+      <c r="L26" s="21"/>
+      <c r="M26" s="22">
         <v>1</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="22">
         <v>5</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22">
         <v>3</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27">
+      <c r="J27" s="21"/>
+      <c r="K27" s="22">
         <v>1</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27">
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22">
         <v>4</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27">
+      <c r="G28" s="21"/>
+      <c r="H28" s="22">
         <v>1</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27">
+      <c r="I28" s="21"/>
+      <c r="J28" s="22">
         <v>1</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="22">
         <v>2</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27">
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22">
         <v>4</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27">
+      <c r="G29" s="21"/>
+      <c r="H29" s="22">
         <v>1</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="22">
         <v>4</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="22">
         <v>3</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="22">
         <v>2</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27">
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22">
         <v>10</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="21">
         <v>4</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="22">
         <v>7</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="22">
         <v>15</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="22">
         <v>8</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="22">
         <v>10</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="21">
         <v>4</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="21">
         <v>1</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="22">
         <v>48</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P31" s="2"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="P32" s="2"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C57" t="s">
@@ -8562,7 +8593,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C58">
@@ -8570,7 +8601,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C59">
@@ -8578,7 +8609,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C60">
@@ -8586,7 +8617,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C61">
@@ -8594,7 +8625,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C62">
@@ -8602,7 +8633,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C63">
@@ -8610,7 +8641,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C64">
@@ -8618,7 +8649,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C65">
@@ -8626,7 +8657,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C66">
@@ -8634,7 +8665,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C67">
@@ -8642,7 +8673,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C68">
@@ -8650,7 +8681,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C69">
@@ -8658,7 +8689,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C70">
@@ -8666,7 +8697,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C71">
@@ -8674,7 +8705,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C72">
@@ -8682,7 +8713,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C73">
@@ -8690,7 +8721,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C74">
@@ -8698,7 +8729,7 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C75">
@@ -8706,7 +8737,7 @@
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C76">
@@ -8714,7 +8745,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C77">
@@ -8722,7 +8753,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C78">
@@ -8730,7 +8761,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C79">
@@ -8738,7 +8769,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C80">
@@ -8746,7 +8777,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C81">
@@ -8754,7 +8785,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C82">
@@ -8762,7 +8793,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C83">
@@ -8770,7 +8801,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C84">
@@ -8778,7 +8809,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C85">
@@ -8786,7 +8817,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C86">
@@ -8794,7 +8825,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C87">
@@ -8802,7 +8833,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C88">
@@ -8810,7 +8841,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C89">
@@ -8818,7 +8849,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C90">
@@ -8826,7 +8857,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C91">
@@ -8834,7 +8865,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C92">
@@ -8842,7 +8873,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C93">
@@ -8850,7 +8881,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C94">
@@ -8858,7 +8889,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C95">
@@ -8866,7 +8897,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C96">
@@ -8874,7 +8905,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C97">
@@ -8882,7 +8913,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C98">
@@ -8890,7 +8921,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C99">
@@ -8898,7 +8929,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C100">
@@ -8906,7 +8937,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C101">
@@ -8914,7 +8945,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C102">
@@ -8922,7 +8953,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C103">
@@ -8930,7 +8961,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C104">
@@ -8938,7 +8969,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C105">
@@ -8946,7 +8977,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C106">
@@ -8954,7 +8985,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C107">
@@ -8962,7 +8993,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C108">
@@ -8970,7 +9001,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C109">
@@ -8978,7 +9009,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C110">
@@ -8986,7 +9017,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C111">
@@ -8994,7 +9025,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C112">
@@ -9002,7 +9033,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C113">
@@ -9010,17 +9041,17 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C116">
@@ -9039,22 +9070,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E92CAE-B4AD-4DAA-A954-E837B8249F2E}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.3125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.83984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.89453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.83984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="3.05078125" customWidth="1"/>
     <col min="5" max="5" width="3.7890625" customWidth="1"/>
     <col min="6" max="6" width="5.89453125" customWidth="1"/>
     <col min="7" max="7" width="5.578125" customWidth="1"/>
-    <col min="8" max="8" width="4.68359375" customWidth="1"/>
+    <col min="8" max="8" width="19.89453125" customWidth="1"/>
     <col min="9" max="9" width="7.7890625" customWidth="1"/>
     <col min="10" max="10" width="3.578125" customWidth="1"/>
     <col min="11" max="11" width="4.1015625" customWidth="1"/>
@@ -9062,2914 +9093,2899 @@
     <col min="13" max="13" width="122.05078125" customWidth="1"/>
     <col min="14" max="14" width="8.20703125" customWidth="1"/>
     <col min="15" max="15" width="7.68359375" customWidth="1"/>
-    <col min="16" max="16" width="11.3125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.1015625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.68359375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.3125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1015625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.68359375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="1" customWidth="1"/>
     <col min="21" max="21" width="22.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="29">
         <v>0.2</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="29">
         <v>0.74</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="28">
         <v>1.1160000000000001</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="28">
         <v>0.52800000000000002</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="28">
         <v>2.11</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="28">
         <v>0.42</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="28">
         <v>55</v>
       </c>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="29">
         <v>0.2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="29">
         <v>0.74</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="28">
         <v>1.4379999999999999</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="28">
         <v>0.74399999999999999</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="28">
         <v>1.93</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="28">
         <v>0.31</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="28">
         <v>71.900000000000006</v>
       </c>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="29">
         <v>0.2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="29">
         <v>0.74</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="28">
         <v>2.1259999999999999</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="28">
         <v>1.036</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="28">
         <v>0.53</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="28">
         <v>106</v>
       </c>
-      <c r="S4"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="29">
         <v>0.2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="29">
         <v>0.74</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="28">
         <v>1.387</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="28">
         <v>0.68400000000000005</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="28">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="28">
         <v>69.400000000000006</v>
       </c>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="29">
         <v>0.2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="29">
         <v>0.74</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="28">
         <v>4.5540000000000003</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="28">
         <v>2.1880000000000002</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="28">
         <v>2.08</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="28">
         <v>1.22</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="28">
         <v>227.7</v>
       </c>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="29">
         <v>0.46</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="29">
         <v>0.71</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="28">
         <v>4.327</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="28">
         <v>2.145</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="28">
         <v>2.02</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="28">
         <v>1.02</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="28">
         <v>216</v>
       </c>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="29">
         <v>0.46</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="29">
         <v>0.71</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="28">
         <v>1.3360000000000001</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="28">
         <v>0.65700000000000003</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="28">
         <v>2.04</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="28">
         <v>0.19</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="28">
         <v>66.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="29">
         <v>0.23</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="29">
         <v>0.68</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="28">
         <v>1.5249999999999999</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="28">
         <v>0.79500000000000004</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="28">
         <v>1.92</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="28">
         <v>0.76</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="28">
         <v>76.3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="29">
         <v>0.23</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="29">
         <v>0.68</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="28">
         <v>3.4620000000000002</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="28">
         <v>1.671</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="28">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="28">
         <v>0.9</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="28">
         <v>173</v>
       </c>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="29">
         <v>0.2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="29">
         <v>0.74</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="28">
         <v>3.5089999999999999</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="28">
         <v>1.677</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="28">
         <v>2.09</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="28">
         <v>0.96</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="28">
         <v>175</v>
       </c>
-      <c r="S11"/>
-      <c r="T11"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>0.68</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="9">
         <v>1.996</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <v>0.92900000000000005</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="9">
         <v>2.15</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="9">
         <v>0.48</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="9">
         <v>99.8</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="29">
         <v>0.02</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="29">
         <v>0.71</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="28">
         <v>6.8230000000000004</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="28">
         <v>3.2240000000000002</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="28">
         <v>2.12</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="28">
         <v>1.38</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="28">
         <v>341.1</v>
       </c>
-      <c r="S13"/>
-      <c r="T13"/>
     </row>
     <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>0.02</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>0.71</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="9">
         <v>1.163</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="9">
         <v>0.52200000000000002</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="9">
         <v>2.23</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="9">
         <v>0.35</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="9">
         <v>58</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="29">
         <v>0.02</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="29">
         <v>0.71</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="28">
         <v>2.7109999999999999</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="28">
         <v>1.3660000000000001</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="28">
         <v>1.98</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="28">
         <v>0.78</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="28">
         <v>135.6</v>
       </c>
-      <c r="S15"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="29">
         <v>0</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="29">
         <v>0.73</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="28">
         <v>2.8860000000000001</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="28">
         <v>1.4450000000000001</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="28">
         <v>2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="28">
         <v>0.62</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="28">
         <v>144</v>
       </c>
-      <c r="S16"/>
-      <c r="T16"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="29">
         <v>0</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="29">
         <v>0.73</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="28">
         <v>1.5449999999999999</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="28">
         <v>0.71299999999999997</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="28">
         <v>2.17</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="28">
         <v>0.47</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="28">
         <v>77.3</v>
       </c>
-      <c r="S17"/>
-      <c r="T17"/>
     </row>
     <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="29">
         <v>0</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="29">
         <v>0.73</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="28">
         <v>2.516</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="28">
         <v>1.212</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="28">
         <v>2.08</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="28">
         <v>0.49</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="28">
         <v>125.8</v>
       </c>
       <c r="S18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="29">
         <v>0</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="29">
         <v>0.73</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="28">
         <v>1.7010000000000001</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="28">
         <v>0.87</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="28">
         <v>1.96</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="28">
         <v>0.52</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="28">
         <v>85.1</v>
       </c>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="29">
         <v>0</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="29">
         <v>0.73</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="28">
         <v>5.45</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="28">
         <v>2.5960000000000001</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="28">
         <v>2.1</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="28">
         <v>1.26</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="28">
         <v>272.5</v>
       </c>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
+    </row>
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="29">
         <v>0.02</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="29">
         <v>0.79</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="28">
         <v>2.0369999999999999</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="28">
         <v>0.96599999999999997</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="28">
         <v>2.11</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="28">
         <v>1.24</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="28">
         <v>101.9</v>
       </c>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="29">
         <v>0.02</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="29">
         <v>0.79</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="28">
         <v>1.0049999999999999</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="28">
         <v>0.505</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="28">
         <v>1.99</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="28">
         <v>0.24</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="28">
         <v>50.2</v>
       </c>
-      <c r="S22"/>
-      <c r="T22"/>
     </row>
     <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="H23" s="28">
+        <v>2.75</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" s="29">
         <v>0.02</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="29">
         <v>0.79</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="10" t="s">
+      <c r="L23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N23" s="12">
-        <v>3.75</v>
-      </c>
-      <c r="O23" s="12">
-        <v>1.84</v>
-      </c>
-      <c r="P23" s="12">
-        <v>2.04</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="R23" s="12">
-        <v>187.5</v>
-      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23"/>
       <c r="T23"/>
     </row>
     <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <v>0.02</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <v>0.79</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N24" s="12">
-        <v>2.7869999999999999</v>
-      </c>
-      <c r="O24" s="12">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="P24" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R24" s="12">
-        <v>139.30000000000001</v>
+      <c r="N24" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1.84</v>
+      </c>
+      <c r="P24" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="R24" s="9">
+        <v>187.5</v>
       </c>
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R25" s="9">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I26" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="29">
         <v>0.02</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="29">
         <v>0.79</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M26" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N26" s="32">
         <v>2.0619999999999998</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O26" s="32">
         <v>1.018</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P26" s="32">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q26" s="32">
         <v>0.66</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R26" s="32">
         <v>103.1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="8">
         <v>0.01</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="8">
         <v>0.6</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N27" s="9">
         <v>2.7309999999999999</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O27" s="9">
         <v>1.33</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P27" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q27" s="9">
         <v>0.36</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R27" s="9">
         <v>136.6</v>
-      </c>
-      <c r="S26"/>
-      <c r="T26"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="N27" s="12">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0.999</v>
-      </c>
-      <c r="P27" s="12">
-        <v>1.93</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="R27" s="12">
-        <v>96.3</v>
       </c>
       <c r="S27"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="28">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="O28" s="28">
+        <v>0.999</v>
+      </c>
+      <c r="P28" s="28">
+        <v>1.93</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="28">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C29" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E29" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F29" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I29" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="29">
         <v>0.01</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="29">
         <v>0.6</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L29" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M29" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N29" s="28">
         <v>2.0579999999999998</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O29" s="28">
         <v>1.0129999999999999</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P29" s="28">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q29" s="28">
         <v>0.24</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R29" s="28">
         <v>102.9</v>
       </c>
-      <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F30" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G30" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I30" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="29">
         <v>0.01</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="29">
         <v>0.6</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L30" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M30" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N30" s="28">
         <v>3.1949999999999998</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O30" s="28">
         <v>1.637</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P30" s="28">
         <v>1.95</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q30" s="28">
         <v>0.7</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R30" s="28">
         <v>159.69999999999999</v>
       </c>
-      <c r="S29"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F31" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G31" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H31" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I31" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="29">
         <v>0.01</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="29">
         <v>0.6</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L31" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M31" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N31" s="28">
         <v>3.3570000000000002</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O31" s="28">
         <v>1.663</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P31" s="28">
         <v>2.02</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q31" s="28">
         <v>0.86</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R31" s="28">
         <v>167.8</v>
-      </c>
-      <c r="S30"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="N31" s="14">
-        <v>1.903</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0.94</v>
-      </c>
-      <c r="P31" s="14">
-        <v>2.02</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="R31" s="14">
-        <v>95.2</v>
       </c>
       <c r="S31"/>
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>0.01</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <v>0.6</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N32" s="12">
-        <v>2.484</v>
-      </c>
-      <c r="O32" s="12">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="P32" s="12">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="R32" s="12">
-        <v>124.2</v>
+      <c r="N32" s="11">
+        <v>1.903</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="P32" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="R32" s="11">
+        <v>95.2</v>
       </c>
       <c r="S32"/>
       <c r="T32"/>
     </row>
     <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="8">
         <v>0.01</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="8">
         <v>0.6</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="12">
-        <v>2.8279999999999998</v>
-      </c>
-      <c r="O33" s="12">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="P33" s="12">
-        <v>1.99</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>0.54</v>
-      </c>
-      <c r="R33" s="12">
-        <v>141.4</v>
+      <c r="N33" s="9">
+        <v>2.484</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="P33" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="R33" s="9">
+        <v>124.2</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="8">
         <v>0.01</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="8">
         <v>0.6</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="12">
-        <v>7.94</v>
-      </c>
-      <c r="O34" s="12">
-        <v>3.806</v>
-      </c>
-      <c r="P34" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>1.27</v>
-      </c>
-      <c r="R34" s="12">
-        <v>397</v>
+      <c r="N34" s="9">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="R34" s="9">
+        <v>141.4</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" s="28">
+        <v>7.94</v>
+      </c>
+      <c r="O35" s="28">
+        <v>3.806</v>
+      </c>
+      <c r="P35" s="28">
+        <v>2.09</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>1.27</v>
+      </c>
+      <c r="R35" s="28">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F36" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G36" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H36" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I36" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J36" s="29">
         <v>0.01</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="29">
         <v>0.6</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L36" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M36" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N36" s="28">
         <v>3.5409999999999999</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O36" s="28">
         <v>1.718</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P36" s="28">
         <v>2.06</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q36" s="28">
         <v>0.26</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R36" s="28">
         <v>177</v>
       </c>
-      <c r="S35"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7" t="s">
+    </row>
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F37" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G37" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H37" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I37" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="29">
         <v>0.01</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="29">
         <v>0.78</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L37" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M37" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N37" s="28">
         <v>5.2430000000000003</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O37" s="28">
         <v>2.5630000000000002</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P37" s="28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q37" s="28">
         <v>1.25</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R37" s="28">
         <v>262.2</v>
-      </c>
-      <c r="S36"/>
-      <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37" s="12">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="O37" s="12">
-        <v>0.497</v>
-      </c>
-      <c r="P37" s="12">
-        <v>2.11</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="R37" s="12">
-        <v>52.3</v>
       </c>
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0.497</v>
+      </c>
+      <c r="P38" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F39" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G39" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H39" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I39" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="29">
         <v>0.01</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="29">
         <v>0.78</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L39" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M39" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N39" s="28">
         <v>2.6429999999999998</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O39" s="28">
         <v>1.3089999999999999</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P39" s="28">
         <v>2.02</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q39" s="28">
         <v>0.65</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R39" s="28">
         <v>132.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N39" s="12">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="O39" s="12">
-        <v>2.089</v>
-      </c>
-      <c r="P39" s="12">
-        <v>2.04</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R39" s="12">
-        <v>213.1</v>
       </c>
       <c r="S39"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="29">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N40" s="28">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="O40" s="28">
+        <v>2.089</v>
+      </c>
+      <c r="P40" s="28">
+        <v>2.04</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R40" s="28">
+        <v>213.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D41" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E41" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F41" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G41" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H41" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I41" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="29">
         <v>0</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="29">
         <v>0.8</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L41" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M41" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N41" s="28">
         <v>1.9179999999999999</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O41" s="28">
         <v>0.95899999999999996</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P41" s="28">
         <v>2</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q41" s="28">
         <v>0.73</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R41" s="28">
         <v>95.9</v>
       </c>
-      <c r="S40"/>
-      <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="42" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E42" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F42" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G42" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H42" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I42" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="29">
         <v>0</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="29">
         <v>0.8</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L42" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M42" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N42" s="28">
         <v>2.3340000000000001</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O42" s="28">
         <v>1.2729999999999999</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P42" s="28">
         <v>1.83</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q42" s="28">
         <v>0.31</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R42" s="28">
         <v>116.7</v>
       </c>
-      <c r="S41"/>
-      <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="43" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D43" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E43" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F43" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G43" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H43" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I43" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="29">
         <v>0</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="29">
         <v>0.8</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L43" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M43" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N43" s="28">
         <v>4.694</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O43" s="28">
         <v>2.3149999999999999</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P43" s="28">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q43" s="28">
         <v>0.4</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R43" s="28">
         <v>234.7</v>
       </c>
-      <c r="S42"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F44" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G44" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H44" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I44" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J44" s="29">
         <v>0</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="29">
         <v>0.8</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L44" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M44" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N44" s="28">
         <v>2.1619999999999999</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O44" s="28">
         <v>1.0740000000000001</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P44" s="28">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q44" s="28">
         <v>0.3</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R44" s="28">
         <v>108.1</v>
-      </c>
-      <c r="S43"/>
-      <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="N44" s="12">
-        <v>1.571</v>
-      </c>
-      <c r="O44" s="12">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="P44" s="12">
-        <v>1.93</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="R44" s="12">
-        <v>78.5</v>
       </c>
       <c r="S44"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" s="28">
+        <v>1.571</v>
+      </c>
+      <c r="O45" s="28">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="P45" s="28">
+        <v>1.93</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="R45" s="28">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E46" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F46" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G46" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H46" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I46" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="29">
         <v>0</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="29">
         <v>0.8</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L46" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M46" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N46" s="28">
         <v>0.88900000000000001</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O46" s="28">
         <v>0.44500000000000001</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P46" s="28">
         <v>2</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q46" s="28">
         <v>0.18</v>
       </c>
-      <c r="R45" s="12">
+      <c r="R46" s="28">
         <v>44.5</v>
       </c>
-      <c r="S45"/>
-      <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="7" t="s">
+    </row>
+    <row r="47" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E47" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F47" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G47" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H47" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I47" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="29">
         <v>0</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="29">
         <v>0.8</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L47" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M47" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N47" s="28">
         <v>2.5350000000000001</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O47" s="28">
         <v>1.2809999999999999</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P47" s="28">
         <v>1.98</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q47" s="28">
         <v>0.47</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R47" s="28">
         <v>126.8</v>
       </c>
-      <c r="S46"/>
-      <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="48" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D48" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E48" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F48" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G48" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H48" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I48" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J48" s="29">
         <v>0</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="29">
         <v>0.8</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L48" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M48" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N48" s="28">
         <v>1.798</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O48" s="28">
         <v>0.91500000000000004</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P48" s="28">
         <v>1.96</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q48" s="28">
         <v>0.72</v>
       </c>
-      <c r="R47" s="12">
+      <c r="R48" s="28">
         <v>89.9</v>
       </c>
-      <c r="S47"/>
-      <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="49" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E49" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F49" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G49" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H49" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I49" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="29">
         <v>0</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="29">
         <v>0.8</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="L49" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M49" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N49" s="28">
         <v>2.7669999999999999</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O49" s="28">
         <v>1.427</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P49" s="28">
         <v>1.94</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q49" s="28">
         <v>0.63</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R49" s="28">
         <v>138.30000000000001</v>
       </c>
-      <c r="S48"/>
-      <c r="T48"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="50" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E50" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F50" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G50" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H50" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I50" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="29">
         <v>0</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="29">
         <v>0.8</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L50" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M50" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N50" s="28">
         <v>8.2539999999999996</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O50" s="28">
         <v>3.9790000000000001</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P50" s="28">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q50" s="28">
         <v>1.28</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R50" s="28">
         <v>412.7</v>
       </c>
-      <c r="S49"/>
-      <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="51" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C51" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E51" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F51" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G51" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H51" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I51" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="29">
         <v>0</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="29">
         <v>0.8</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L51" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="M51" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N51" s="28">
         <v>2.8660000000000001</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O51" s="28">
         <v>1.5229999999999999</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P51" s="28">
         <v>1.88</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q51" s="28">
         <v>0.52</v>
       </c>
-      <c r="R50" s="12">
+      <c r="R51" s="28">
         <v>143.30000000000001</v>
       </c>
-      <c r="S50"/>
-      <c r="T50"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="H58" t="s">
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C26:C50 C2:C24" numberStoredAsText="1"/>
+    <ignoredError sqref="C27:C51 C24:C25 C2:C22" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -12008,1017 +12024,1017 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.3671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.83984375" style="4"/>
+    <col min="1" max="1" width="11.1015625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.7890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.1160000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2.11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.4379999999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1.93</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.31</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>71.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2.1259999999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.036</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.53</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.387</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>69.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4.5540000000000003</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.1880000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.08</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1.22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>227.7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4.327</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.145</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.02</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1.02</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.3360000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.04</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>66.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1.5249999999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1.92</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.76</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>76.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3.4620000000000002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1.671</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>3.5089999999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.677</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.09</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.96</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1.996</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.92900000000000005</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>2.15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.48</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>99.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="24">
         <v>6.8230000000000004</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="24">
         <v>3.2240000000000002</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="24">
         <v>2.12</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="24">
         <v>1.38</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="25">
         <v>341.1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1.163</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.23</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.35</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2.7109999999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.3660000000000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>1.98</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.78</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>135.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2.8860000000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.4450000000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.62</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.5449999999999999</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>2.17</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.47</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>77.3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2.516</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.212</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>2.08</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.49</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>125.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1.7010000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.87</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1.96</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.52</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>85.1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>5.45</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2.5960000000000001</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2.1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1.26</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>272.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2.0369999999999999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>2.11</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>1.24</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>101.9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.505</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1.99</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.24</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>50.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>3.75</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1.84</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>2.04</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.81</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>187.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2.0619999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>1.018</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.66</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>103.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2.7869999999999999</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1.3919999999999999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>139.30000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1.33</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.36</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>136.6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1.9259999999999999</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.999</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>1.93</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.5</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>96.3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2.0579999999999998</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.0129999999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.24</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>102.9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>3.1949999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>1.637</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>1.95</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.7</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>159.69999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>3.3570000000000002</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1.663</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2.02</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.86</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>167.8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>2.484</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1.2350000000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.79</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>124.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2.8279999999999998</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1.4239999999999999</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>1.99</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.54</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>141.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="24">
         <v>7.94</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="24">
         <v>3.806</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="24">
         <v>2.09</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="24">
         <v>1.27</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="25">
         <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>3.5409999999999999</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>1.718</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2.06</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.26</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>5.2430000000000003</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>2.5630000000000002</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>1.25</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>262.2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>1.0469999999999999</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>0.497</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2.11</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>0.1</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>52.3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>2.6429999999999998</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1.3089999999999999</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>2.02</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0.65</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>132.1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1.903</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>0.94</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2.02</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0.24</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>95.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>4.2619999999999996</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>2.089</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>2.04</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>213.1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>1.9179999999999999</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>0.73</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>95.9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>2.3340000000000001</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>1.2729999999999999</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>1.83</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.31</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>116.7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>4.694</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>2.3149999999999999</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>0.4</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>234.7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>2.1619999999999999</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>1.0740000000000001</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>0.3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>108.1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1.571</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>0.81299999999999994</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>1.93</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>0.36</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>78.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0.18</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>44.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>2.5350000000000001</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>1.2809999999999999</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>1.98</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>0.47</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>126.8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>1.798</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>1.96</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>0.72</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>89.9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1.427</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>1.94</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>0.63</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="24">
         <v>8.2539999999999996</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="24">
         <v>3.9790000000000001</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="24">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="24">
         <v>1.28</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="25">
         <v>412.7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>2.8660000000000001</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>1.5229999999999999</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>1.88</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0.52</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>143.30000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <f>AVERAGE(F2:F49)</f>
         <v>142.96250000000001</v>
       </c>
